--- a/cases/NorthSea_v2/NewTechnologies/NewTechnologies.xlsx
+++ b/cases/NorthSea_v2/NewTechnologies/NewTechnologies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea_v2\NewTechnologies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A00200-4FED-4831-A245-562C9B3EB4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80695A7E-E3FD-4A07-9A8B-1F0CDDF59025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="10">
   <si>
     <t>Node</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>onNL_C</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -584,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -595,7 +598,7 @@
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,8 +611,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A29">[1]Nodes_used!$A$2:$A$29</f>
         <v>onNL_NE</v>
@@ -623,8 +629,12 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="str">
+        <f>_xlfn.TEXTJOIN(", ",TRUE,B2:D2)</f>
+        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <v>onNL_SE</v>
       </c>
@@ -637,8 +647,12 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E30" si="0">_xlfn.TEXTJOIN(", ",TRUE,B3:D3)</f>
+        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <v>onNL_NW</v>
       </c>
@@ -651,8 +665,12 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <v>onNL_W</v>
       </c>
@@ -665,8 +683,12 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <v>onNL_CE</v>
       </c>
@@ -679,8 +701,12 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <v>onNL_SW</v>
       </c>
@@ -693,13 +719,21 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <v>onNL_CW</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <v>onNL_E</v>
       </c>
@@ -712,8 +746,12 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <v>onBE</v>
       </c>
@@ -726,8 +764,12 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <v>onDE</v>
       </c>
@@ -740,8 +782,12 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <v>onUK</v>
       </c>
@@ -754,8 +800,12 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <v>onNOS</v>
       </c>
@@ -768,8 +818,12 @@
       <c r="D13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <v>onDKW</v>
       </c>
@@ -782,8 +836,12 @@
       <c r="D14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <v>ofNL_IJ_B</v>
       </c>
@@ -793,8 +851,12 @@
       <c r="C15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_Battery, Electrolyser_PEM_offshore</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <v>ofNL_IJ_A</v>
       </c>
@@ -804,58 +866,102 @@
       <c r="C16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_Battery, Electrolyser_PEM_offshore</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <v>ofNL_BO_A</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <v>ofNL_BO_B</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <v>ofNL_EG</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <v>ofNL_PA</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <v>ofNL_LU</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <v>ofNL_GE_B</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <v>ofNL_GE_A</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <v>ofNL_KZ_B</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <v>ofNL_KZ_A</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <v>ofNL_KN</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <v>ofNL_KW_A</v>
       </c>
@@ -865,8 +971,12 @@
       <c r="C27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_Battery, Electrolyser_PEM_offshore</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <v>ofNL_KW_B</v>
       </c>
@@ -876,8 +986,12 @@
       <c r="C28" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_Battery, Electrolyser_PEM_offshore</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <v>ofNL_IJ_G</v>
       </c>
@@ -887,8 +1001,12 @@
       <c r="C29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_Battery, Electrolyser_PEM_offshore</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -900,6 +1018,10 @@
       </c>
       <c r="D30" t="s">
         <v>7</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
       </c>
     </row>
   </sheetData>

--- a/cases/NorthSea_v2/NewTechnologies/NewTechnologies.xlsx
+++ b/cases/NorthSea_v2/NewTechnologies/NewTechnologies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea_v2\NewTechnologies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80695A7E-E3FD-4A07-9A8B-1F0CDDF59025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16F2483-ECB3-4B38-B451-CA32F823792A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewTechnologies" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="11">
   <si>
     <t>Node</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Storage_Battery_new</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,7 +624,7 @@
         <v>onNL_NE</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -631,7 +634,7 @@
       </c>
       <c r="E2" t="str">
         <f>_xlfn.TEXTJOIN(", ",TRUE,B2:D2)</f>
-        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+        <v>Storage_Battery_new, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -639,7 +642,7 @@
         <v>onNL_SE</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -649,7 +652,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E30" si="0">_xlfn.TEXTJOIN(", ",TRUE,B3:D3)</f>
-        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+        <v>Storage_Battery_new, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -657,7 +660,7 @@
         <v>onNL_NW</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -667,7 +670,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+        <v>Storage_Battery_new, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -675,7 +678,7 @@
         <v>onNL_W</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -685,7 +688,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+        <v>Storage_Battery_new, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -693,7 +696,7 @@
         <v>onNL_CE</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -703,7 +706,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+        <v>Storage_Battery_new, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -711,7 +714,7 @@
         <v>onNL_SW</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -721,7 +724,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+        <v>Storage_Battery_new, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -738,7 +741,7 @@
         <v>onNL_E</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -748,7 +751,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+        <v>Storage_Battery_new, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -756,7 +759,7 @@
         <v>onBE</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -766,7 +769,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+        <v>Storage_Battery_new, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -774,7 +777,7 @@
         <v>onDE</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -784,7 +787,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+        <v>Storage_Battery_new, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -792,7 +795,7 @@
         <v>onUK</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -802,7 +805,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+        <v>Storage_Battery_new, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -810,7 +813,7 @@
         <v>onNOS</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -820,7 +823,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+        <v>Storage_Battery_new, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -828,7 +831,7 @@
         <v>onDKW</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -838,7 +841,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+        <v>Storage_Battery_new, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -846,14 +849,14 @@
         <v>ofNL_IJ_B</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_Battery, Electrolyser_PEM_offshore</v>
+        <v>Storage_Battery_new, Electrolyser_PEM_offshore</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -861,14 +864,14 @@
         <v>ofNL_IJ_A</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_Battery, Electrolyser_PEM_offshore</v>
+        <v>Storage_Battery_new, Electrolyser_PEM_offshore</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -966,14 +969,14 @@
         <v>ofNL_KW_A</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_Battery, Electrolyser_PEM_offshore</v>
+        <v>Storage_Battery_new, Electrolyser_PEM_offshore</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -981,14 +984,14 @@
         <v>ofNL_KW_B</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_Battery, Electrolyser_PEM_offshore</v>
+        <v>Storage_Battery_new, Electrolyser_PEM_offshore</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -996,14 +999,14 @@
         <v>ofNL_IJ_G</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_Battery, Electrolyser_PEM_offshore</v>
+        <v>Storage_Battery_new, Electrolyser_PEM_offshore</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1011,7 +1014,7 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1021,7 +1024,7 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_Battery, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
+        <v>Storage_Battery_new, Electrolyser_PEM, FuelCell, Storage_Hydrogen</v>
       </c>
     </row>
   </sheetData>
